--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2025_02_05 18_21_15.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2025_02_05 18_21_15.xlsx
@@ -7347,13 +7347,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15091C4A-B230-4D19-A420-958C2066260B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4310D59-EC12-469B-825E-CF0B40C90546}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02D93188-C277-46A2-9FCC-82AF217DCBC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA8DFB0F-AF6B-4972-9DE1-B36AA324244D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F68AFF51-7746-45C6-80F3-6FB115C5342E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E53629-2156-42A7-BAA2-BC9379845CE7}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2025_02_05 18_21_15.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2025_02_05 18_21_15.xlsx
@@ -7347,13 +7347,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4310D59-EC12-469B-825E-CF0B40C90546}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD19BB29-9CE1-4D82-9CA9-AA8A69819527}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA8DFB0F-AF6B-4972-9DE1-B36AA324244D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD375E28-1018-4CB0-93FC-4A549F93BBD1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E53629-2156-42A7-BAA2-BC9379845CE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A131D9BC-C4F8-405E-BB5C-91D754691A74}"/>
 </file>